--- a/excel/sp2-10.xlsx
+++ b/excel/sp2-10.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shinji/mahjong/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shinji/mahjong/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEE679A1-F612-3B47-85FF-2285767E72F0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9F9F3F8-E877-6640-95CC-6829929FD6DC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7320" yWindow="1360" windowWidth="27500" windowHeight="14880" xr2:uid="{A59897E3-182C-A940-AB91-5801E069ED70}"/>
+    <workbookView xWindow="1300" yWindow="1340" windowWidth="27500" windowHeight="14880" xr2:uid="{A59897E3-182C-A940-AB91-5801E069ED70}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="38">
   <si>
     <t>牌</t>
     <rPh sb="0" eb="1">
@@ -297,7 +297,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="183" formatCode="0.000"/>
+    <numFmt numFmtId="176" formatCode="0.000"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -345,7 +345,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -662,15 +662,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{414C823A-B76E-CD4F-8F62-F57EE8727F92}">
-  <dimension ref="A1:D35"/>
+  <dimension ref="A1:H35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="A1:D35"/>
+      <selection activeCell="E1" sqref="E1:H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -683,8 +683,20 @@
       <c r="D1" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -697,8 +709,20 @@
       <c r="D2" s="2">
         <v>0.20171976315905801</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="2">
+        <v>0.13522829217621099</v>
+      </c>
+      <c r="G2" s="2">
+        <v>0.84235294117644499</v>
+      </c>
+      <c r="H2" s="2">
+        <v>0.233044468831686</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -711,8 +735,20 @@
       <c r="D3" s="2">
         <v>0.237891466083053</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0.17619450317124599</v>
+      </c>
+      <c r="G3" s="2">
+        <v>0.81641849529778898</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0.28983793556236798</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -725,8 +761,20 @@
       <c r="D4" s="2">
         <v>0.26786659605517099</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0.181831090915544</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0.82706281285320804</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0.29812001626752099</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -739,8 +787,20 @@
       <c r="D5" s="2">
         <v>0.31742946008720202</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0.21318113589555501</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0.82138533960994098</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0.33850673462721897</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -753,8 +813,20 @@
       <c r="D6" s="2">
         <v>0.31785775531578098</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0.220319362636613</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0.817871587462072</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0.347128718149111</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -767,8 +839,20 @@
       <c r="D7" s="2">
         <v>0.30406091367501598</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0.21543201031666301</v>
+      </c>
+      <c r="G7" s="2">
+        <v>0.81073065516310505</v>
+      </c>
+      <c r="H7" s="2">
+        <v>0.34040867150132398</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -781,8 +865,20 @@
       <c r="D8" s="2">
         <v>0.25843044237834101</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0.17717314487632399</v>
+      </c>
+      <c r="G8" s="2">
+        <v>0.82129402129400697</v>
+      </c>
+      <c r="H8" s="2">
+        <v>0.291469263159296</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -795,8 +891,20 @@
       <c r="D9" s="2">
         <v>0.24801859242999499</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="E9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0.173890893653151</v>
+      </c>
+      <c r="G9" s="2">
+        <v>0.803767660910502</v>
+      </c>
+      <c r="H9" s="2">
+        <v>0.28592370245932103</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -809,8 +917,20 @@
       <c r="D10" s="2">
         <v>0.202510043709098</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="E10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="2">
+        <v>0.13208774865216499</v>
+      </c>
+      <c r="G10" s="2">
+        <v>0.84182464454973804</v>
+      </c>
+      <c r="H10" s="2">
+        <v>0.22834645666946499</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
@@ -823,8 +943,20 @@
       <c r="D11" s="2">
         <v>0.190566967934238</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="E11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="2">
+        <v>0.132064834390415</v>
+      </c>
+      <c r="G11" s="2">
+        <v>0.83190292986088099</v>
+      </c>
+      <c r="H11" s="2">
+        <v>0.22794356144245601</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
@@ -837,8 +969,20 @@
       <c r="D12" s="2">
         <v>0.25378707383308902</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="E12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="2">
+        <v>0.176478056625332</v>
+      </c>
+      <c r="G12" s="2">
+        <v>0.81524926686215404</v>
+      </c>
+      <c r="H12" s="2">
+        <v>0.29014750901610697</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
@@ -851,8 +995,20 @@
       <c r="D13" s="2">
         <v>0.27373190404957398</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="E13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" s="2">
+        <v>0.183029732372432</v>
+      </c>
+      <c r="G13" s="2">
+        <v>0.82125446863827001</v>
+      </c>
+      <c r="H13" s="2">
+        <v>0.29934551482196903</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
@@ -865,8 +1021,20 @@
       <c r="D14" s="2">
         <v>0.293272465131726</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="E14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" s="2">
+        <v>0.22741922804810799</v>
+      </c>
+      <c r="G14" s="2">
+        <v>0.78136394328155601</v>
+      </c>
+      <c r="H14" s="2">
+        <v>0.35230005780901702</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
@@ -879,8 +1047,20 @@
       <c r="D15" s="2">
         <v>0.31639790165901299</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="E15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F15" s="2">
+        <v>0.22755214440535701</v>
+      </c>
+      <c r="G15" s="2">
+        <v>0.80110082561920404</v>
+      </c>
+      <c r="H15" s="2">
+        <v>0.354428978574724</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
@@ -893,8 +1073,20 @@
       <c r="D16" s="2">
         <v>0.30682701774918603</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="E16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F16" s="2">
+        <v>0.22814002996136401</v>
+      </c>
+      <c r="G16" s="2">
+        <v>0.77803172895938699</v>
+      </c>
+      <c r="H16" s="2">
+        <v>0.35282282644950702</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
@@ -907,8 +1099,20 @@
       <c r="D17" s="2">
         <v>0.26278359154679598</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F17" s="2">
+        <v>0.19680739340474601</v>
+      </c>
+      <c r="G17" s="2">
+        <v>0.77836849975077604</v>
+      </c>
+      <c r="H17" s="2">
+        <v>0.31417650211370302</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
@@ -921,8 +1125,20 @@
       <c r="D18" s="2">
         <v>0.25238819589731798</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F18" s="2">
+        <v>0.172953315290932</v>
+      </c>
+      <c r="G18" s="2">
+        <v>0.80958036421217705</v>
+      </c>
+      <c r="H18" s="2">
+        <v>0.28501742157377702</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
@@ -935,8 +1151,20 @@
       <c r="D19" s="2">
         <v>0.20335787066823799</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F19" s="2">
+        <v>0.12625170938285701</v>
+      </c>
+      <c r="G19" s="2">
+        <v>0.86569872958255001</v>
+      </c>
+      <c r="H19" s="2">
+        <v>0.220365736262672</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
@@ -949,8 +1177,20 @@
       <c r="D20" s="2">
         <v>0.20304718336302499</v>
       </c>
-    </row>
-    <row r="21" spans="1:4">
+      <c r="E20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F20" s="2">
+        <v>0.12885833670305899</v>
+      </c>
+      <c r="G20" s="2">
+        <v>0.87120291616036205</v>
+      </c>
+      <c r="H20" s="2">
+        <v>0.224509765526102</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
@@ -963,8 +1203,20 @@
       <c r="D21" s="2">
         <v>0.25216502282696601</v>
       </c>
-    </row>
-    <row r="22" spans="1:4">
+      <c r="E21" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F21" s="2">
+        <v>0.17256365052683201</v>
+      </c>
+      <c r="G21" s="2">
+        <v>0.82207031249998397</v>
+      </c>
+      <c r="H21" s="2">
+        <v>0.285249567929029</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
@@ -977,8 +1229,20 @@
       <c r="D22" s="2">
         <v>0.263250883364677</v>
       </c>
-    </row>
-    <row r="23" spans="1:4">
+      <c r="E22" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F22" s="2">
+        <v>0.19363057324840599</v>
+      </c>
+      <c r="G22" s="2">
+        <v>0.78861924686191098</v>
+      </c>
+      <c r="H22" s="2">
+        <v>0.31092048825603702</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
         <v>22</v>
       </c>
@@ -991,8 +1255,20 @@
       <c r="D23" s="2">
         <v>0.29796702737969899</v>
       </c>
-    </row>
-    <row r="24" spans="1:4">
+      <c r="E23" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F23" s="2">
+        <v>0.21200889547813101</v>
+      </c>
+      <c r="G23" s="2">
+        <v>0.82534011268378604</v>
+      </c>
+      <c r="H23" s="2">
+        <v>0.337358872067684</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
         <v>23</v>
       </c>
@@ -1005,8 +1281,20 @@
       <c r="D24" s="2">
         <v>0.30490931304882002</v>
       </c>
-    </row>
-    <row r="25" spans="1:4">
+      <c r="E24" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F24" s="2">
+        <v>0.224988441156594</v>
+      </c>
+      <c r="G24" s="2">
+        <v>0.80045552321902003</v>
+      </c>
+      <c r="H24" s="2">
+        <v>0.35124930590688802</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
         <v>24</v>
       </c>
@@ -1019,8 +1307,20 @@
       <c r="D25" s="2">
         <v>0.30611204564386102</v>
       </c>
-    </row>
-    <row r="26" spans="1:4">
+      <c r="E25" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F25" s="2">
+        <v>0.22523172770095601</v>
+      </c>
+      <c r="G25" s="2">
+        <v>0.79445263298940305</v>
+      </c>
+      <c r="H25" s="2">
+        <v>0.35096338825101397</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
         <v>25</v>
       </c>
@@ -1033,8 +1333,20 @@
       <c r="D26" s="2">
         <v>0.283631583634608</v>
       </c>
-    </row>
-    <row r="27" spans="1:4">
+      <c r="E26" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F26" s="2">
+        <v>0.18758534587023401</v>
+      </c>
+      <c r="G26" s="2">
+        <v>0.787164374590687</v>
+      </c>
+      <c r="H26" s="2">
+        <v>0.30297110806936001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
         <v>26</v>
       </c>
@@ -1047,8 +1359,20 @@
       <c r="D27" s="2">
         <v>0.25041205907076097</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F27" s="2">
+        <v>0.168694145899767</v>
+      </c>
+      <c r="G27" s="2">
+        <v>0.83593445181426296</v>
+      </c>
+      <c r="H27" s="2">
+        <v>0.28073508694424198</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
         <v>27</v>
       </c>
@@ -1061,8 +1385,20 @@
       <c r="D28" s="2">
         <v>0.201900075162149</v>
       </c>
-    </row>
-    <row r="29" spans="1:4">
+      <c r="E28" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F28" s="2">
+        <v>0.13574555276147801</v>
+      </c>
+      <c r="G28" s="2">
+        <v>0.85059819083744204</v>
+      </c>
+      <c r="H28" s="2">
+        <v>0.234127143464474</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
         <v>28</v>
       </c>
@@ -1075,8 +1411,20 @@
       <c r="D29" s="2">
         <v>6.8868367498850905E-2</v>
       </c>
-    </row>
-    <row r="30" spans="1:4">
+      <c r="E29" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F29" s="2">
+        <v>3.6099784120892098E-2</v>
+      </c>
+      <c r="G29" s="2">
+        <v>0.86910490856584499</v>
+      </c>
+      <c r="H29" s="2">
+        <v>6.9320231827446802E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
         <v>29</v>
       </c>
@@ -1089,8 +1437,20 @@
       <c r="D30" s="2">
         <v>6.81937270678077E-2</v>
       </c>
-    </row>
-    <row r="31" spans="1:4">
+      <c r="E30" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F30" s="2">
+        <v>3.5886406181542797E-2</v>
+      </c>
+      <c r="G30" s="2">
+        <v>0.85565052231710703</v>
+      </c>
+      <c r="H30" s="2">
+        <v>6.8883792041202693E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
         <v>30</v>
       </c>
@@ -1103,8 +1463,20 @@
       <c r="D31" s="2">
         <v>5.6699470092090302E-2</v>
       </c>
-    </row>
-    <row r="32" spans="1:4">
+      <c r="E31" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F31" s="2">
+        <v>2.94590467004258E-2</v>
+      </c>
+      <c r="G31" s="2">
+        <v>0.84936268829654105</v>
+      </c>
+      <c r="H31" s="2">
+        <v>5.6943095740267E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
         <v>31</v>
       </c>
@@ -1117,8 +1489,20 @@
       <c r="D32" s="2">
         <v>6.17003558112941E-2</v>
       </c>
-    </row>
-    <row r="33" spans="1:4">
+      <c r="E32" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F32" s="2">
+        <v>3.1206603919148101E-2</v>
+      </c>
+      <c r="G32" s="2">
+        <v>0.88126361655763796</v>
+      </c>
+      <c r="H32" s="2">
+        <v>6.0278667752874798E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
         <v>32</v>
       </c>
@@ -1131,8 +1515,20 @@
       <c r="D33" s="2">
         <v>7.8742537586795794E-2</v>
       </c>
-    </row>
-    <row r="34" spans="1:4">
+      <c r="E33" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F33" s="2">
+        <v>3.9596097118220798E-2</v>
+      </c>
+      <c r="G33" s="2">
+        <v>0.87761944677276704</v>
+      </c>
+      <c r="H33" s="2">
+        <v>7.5773475656655806E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
         <v>33</v>
       </c>
@@ -1145,8 +1541,20 @@
       <c r="D34" s="2">
         <v>7.5042676673439598E-2</v>
       </c>
-    </row>
-    <row r="35" spans="1:4">
+      <c r="E34" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F34" s="2">
+        <v>4.0928827638285599E-2</v>
+      </c>
+      <c r="G34" s="2">
+        <v>0.88417618270792098</v>
+      </c>
+      <c r="H34" s="2">
+        <v>7.8236079526744995E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
         <v>34</v>
       </c>
@@ -1158,6 +1566,18 @@
       </c>
       <c r="D35" s="2">
         <v>7.60796281098544E-2</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F35" s="2">
+        <v>4.1297032731722E-2</v>
+      </c>
+      <c r="G35" s="2">
+        <v>0.87449392712543506</v>
+      </c>
+      <c r="H35" s="2">
+        <v>7.8869536632859394E-2</v>
       </c>
     </row>
   </sheetData>
